--- a/LKG/Half Yearly Exam_class_LKG.xlsx
+++ b/LKG/Half Yearly Exam_class_LKG.xlsx
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
